--- a/medicine/Premiers secours et secourisme/Centre_médical_héliporté_de_Bra-sur-Lienne/Centre_médical_héliporté_de_Bra-sur-Lienne.xlsx
+++ b/medicine/Premiers secours et secourisme/Centre_médical_héliporté_de_Bra-sur-Lienne/Centre_médical_héliporté_de_Bra-sur-Lienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre médical héliporté est une asbl belge d'aide médicale urgente installée à Bra-sur-Lienne, dans la commune de Lierneux, en province de Liège[1]. Elle fournit un service médical d'urgence et de réanimation par vecteur héliporté ou terrestre si les conditions météorologiques ne permettent pas le vol. 
+Le Centre médical héliporté est une asbl belge d'aide médicale urgente installée à Bra-sur-Lienne, dans la commune de Lierneux, en province de Liège. Elle fournit un service médical d'urgence et de réanimation par vecteur héliporté ou terrestre si les conditions météorologiques ne permettent pas le vol. 
 Le service se fait par réquisition de la Centrale 112 territorialement compétente, joignable 7 jours sur 7 et 24h sur 24 via le numéro d'urgence européen 112 en étant engagé tel un classique. 
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après l'échec de la mise en place du programme « héli-secours », créé par arrêté royal le 11 juin 1974[2] et confié à la protection civile, l'idée d'une aide médicale urgente héliportée resta dans certains esprits. L'asbl fut fondée le 26 décembre 1986 par le docteur Luc Macquoi afin de répondre aux importants délais d'intervention médicaux urgents dans cette partie rurale et peu densément peuplée de la Belgique (entre l'Ardenne et les Hautes Fagnes, dans le nord de la province de Luxembourg et le sud de la province de Liège). D'abord simplement active avec une ambulance, en octobre 1997, le CMH se dote d'un hélicoptère Sikorsky S-76 de la société Wiking pour réaliser ses missions de secours.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'échec de la mise en place du programme « héli-secours », créé par arrêté royal le 11 juin 1974 et confié à la protection civile, l'idée d'une aide médicale urgente héliportée resta dans certains esprits. L'asbl fut fondée le 26 décembre 1986 par le docteur Luc Macquoi afin de répondre aux importants délais d'intervention médicaux urgents dans cette partie rurale et peu densément peuplée de la Belgique (entre l'Ardenne et les Hautes Fagnes, dans le nord de la province de Luxembourg et le sud de la province de Liège). D'abord simplement active avec une ambulance, en octobre 1997, le CMH se dote d'un hélicoptère Sikorsky S-76 de la société Wiking pour réaliser ses missions de secours.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque équipe d’intervention du CMH est composée de trois intervenants :
 - un médecin spécialisé en médecine d’urgence
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Subsides</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'asbl fonctionne via des cartes d'affiliation qui garantissent la gratuité des secours à tous les membres, par donations privées et par subventions de plusieurs communes et des provinces de Liège et de Luxembourg. Elle ne dispose d'aucune aide de l'état belge, ni même de reconnaissance officielle, mis à part le statut « d'expérimentation » depuis 2003 (au même titre qu'un autre service SMUR héliporté belge à Bruges).
 Toutes les missions d'intervention par hélicoptère effectuées par le Centre Médical Héliporté font l'objet d'une facture adressée au(x) patient(s) secouru(s) (si et seulement si le(s) patient(s) a/ont bénéficié d'un geste médical posé par l'équipe du CMH). Si le patient bénéficie d'une carte d'affiliation du CMH, l'ASBL Centre Médical Héliporté prend à sa charge les frais d'intervention non couverts par la mutuelle ou toute(s) autre(s) assurance(s).</t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,11 +631,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'hélicoptère
-Le CMH disposait d'un hélicoptère de type Eurocopter EC145 C2 jusqu'en juin 2021. 
+          <t>L'hélicoptère</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CMH disposait d'un hélicoptère de type Eurocopter EC145 C2 jusqu'en juin 2021. 
 Ensuite, en première européenne et en partenariat avec la société SAF (Service Aérien Français SA), le CMH se dote d'un Airbus H145 D3.
-Voiture
-En cas d'indisponibilité de l'hélicoptère pour raisons techniques, météorologiques ou autres, le CMH dispose également d'un SMUR « roulant » classique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_médical_héliporté_de_Bra-sur-Lienne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_m%C3%A9dical_h%C3%A9liport%C3%A9_de_Bra-sur-Lienne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Appareils</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voiture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d'indisponibilité de l'hélicoptère pour raisons techniques, météorologiques ou autres, le CMH dispose également d'un SMUR « roulant » classique.
 </t>
         </is>
       </c>
